--- a/CharacterizationResults/ZynqUltrascale+/03_DPR_Results_Maximum_Reconfiguration_Delay.xlsx
+++ b/CharacterizationResults/ZynqUltrascale+/03_DPR_Results_Maximum_Reconfiguration_Delay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitto\Desktop\DPR\REPOSITORY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univaq-my.sharepoint.com/personal/giacomo_valente_univaq_it/Documents/1_DPR/Collins_DPR/repo/DPR_Characterization/CharacterizationResults/ZynqUltrascale+/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF31764-5719-43AC-B974-B91CA1C65D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22044" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="512 KiB" sheetId="1" r:id="rId1"/>
@@ -1058,7 +1058,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2119520304"/>
@@ -1162,7 +1162,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1193,7 +1193,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2119519888"/>
@@ -1245,7 +1245,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1279,7 +1279,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2062,7 +2062,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2119520304"/>
@@ -2166,7 +2166,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2197,7 +2197,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2119519888"/>
@@ -2249,7 +2249,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2283,7 +2283,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3066,7 +3066,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2119520304"/>
@@ -3170,7 +3170,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3201,7 +3201,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2119519888"/>
@@ -3253,7 +3253,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3287,7 +3287,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4070,7 +4070,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2119520304"/>
@@ -4174,7 +4174,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4205,7 +4205,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2119519888"/>
@@ -4257,7 +4257,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4291,7 +4291,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7095,8 +7095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9634,8 +9634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1664E00-270B-4BA6-ABED-CE87BCC5C875}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
